--- a/src/helpers/i18n/client.xlsx
+++ b/src/helpers/i18n/client.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>&lt;string name="</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,68 +144,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m000002</t>
+    <t>手機登入</t>
   </si>
   <si>
-    <t>m000003</t>
+    <t>Mobile login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m000004</t>
-  </si>
-  <si>
-    <t>m000005</t>
-  </si>
-  <si>
-    <t>m000006</t>
-  </si>
-  <si>
-    <t>m000007</t>
-  </si>
-  <si>
-    <t>m000008</t>
-  </si>
-  <si>
-    <t>m000009</t>
-  </si>
-  <si>
-    <t>m000010</t>
-  </si>
-  <si>
-    <t>m000011</t>
-  </si>
-  <si>
-    <t>m000012</t>
-  </si>
-  <si>
-    <t>m000013</t>
-  </si>
-  <si>
-    <t>m000014</t>
-  </si>
-  <si>
-    <t>m000015</t>
-  </si>
-  <si>
-    <t>m000016</t>
-  </si>
-  <si>
-    <t>m000017</t>
-  </si>
-  <si>
-    <t>m000018</t>
-  </si>
-  <si>
-    <t>m000019</t>
-  </si>
-  <si>
-    <t>m000020</t>
+    <t>手机登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +310,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,7 +364,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +453,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,7 +766,7 @@
   <dimension ref="A1:E946"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -896,157 +859,107 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
       <c r="B12" s="2"/>
       <c r="C12"/>
       <c r="D12" s="21"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
       <c r="B13" s="2"/>
       <c r="C13"/>
       <c r="D13" s="21"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="26"/>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="26"/>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
       <c r="B16" s="2"/>
       <c r="C16"/>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
       <c r="B17" s="2"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
       <c r="B18" s="2"/>
       <c r="C18"/>
       <c r="D18"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
       <c r="B19" s="2"/>
       <c r="C19"/>
       <c r="D19"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
       <c r="B20" s="2"/>
       <c r="C20"/>
       <c r="D20"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
       <c r="B21" s="2"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
       <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
       <c r="C23"/>
       <c r="D23"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
       <c r="C24"/>
       <c r="D24"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
       <c r="B25" s="22"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
       <c r="B26" s="22"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
       <c r="B27" s="22"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -3734,155 +3647,155 @@
     <row r="7" spans="1:5">
       <c r="B7" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$4&amp;i18n!B14&amp;$A$5,"")</f>
-        <v>&lt;string name="m000007"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C7" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$4&amp;i18n!C14&amp;$A$5,"")</f>
-        <v>&lt;string name="m000007"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D7" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$4&amp;i18n!D14&amp;$A$5,"")</f>
-        <v>&lt;string name="m000007"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$4&amp;i18n!B15&amp;$A$5,"")</f>
-        <v>&lt;string name="m000008"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$4&amp;i18n!C15&amp;$A$5,"")</f>
-        <v>&lt;string name="m000008"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D8" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$4&amp;i18n!D15&amp;$A$5,"")</f>
-        <v>&lt;string name="m000008"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$4&amp;i18n!B16&amp;$A$5,"")</f>
-        <v>&lt;string name="m000009"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C9" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$4&amp;i18n!C16&amp;$A$5,"")</f>
-        <v>&lt;string name="m000009"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$4&amp;i18n!D16&amp;$A$5,"")</f>
-        <v>&lt;string name="m000009"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$4&amp;i18n!B17&amp;$A$5,"")</f>
-        <v>&lt;string name="m000010"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C10" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$4&amp;i18n!C17&amp;$A$5,"")</f>
-        <v>&lt;string name="m000010"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D10" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$4&amp;i18n!D17&amp;$A$5,"")</f>
-        <v>&lt;string name="m000010"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$4&amp;i18n!B18&amp;$A$5,"")</f>
-        <v>&lt;string name="m000011"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C11" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$4&amp;i18n!C18&amp;$A$5,"")</f>
-        <v>&lt;string name="m000011"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D11" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$4&amp;i18n!D18&amp;$A$5,"")</f>
-        <v>&lt;string name="m000011"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$4&amp;i18n!B19&amp;$A$5,"")</f>
-        <v>&lt;string name="m000012"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C12" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$4&amp;i18n!C19&amp;$A$5,"")</f>
-        <v>&lt;string name="m000012"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D12" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$4&amp;i18n!D19&amp;$A$5,"")</f>
-        <v>&lt;string name="m000012"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$4&amp;i18n!B20&amp;$A$5,"")</f>
-        <v>&lt;string name="m000013"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$4&amp;i18n!C20&amp;$A$5,"")</f>
-        <v>&lt;string name="m000013"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D13" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$4&amp;i18n!D20&amp;$A$5,"")</f>
-        <v>&lt;string name="m000013"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$4&amp;i18n!B21&amp;$A$5,"")</f>
-        <v>&lt;string name="m000014"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C14" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$4&amp;i18n!C21&amp;$A$5,"")</f>
-        <v>&lt;string name="m000014"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D14" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$4&amp;i18n!D21&amp;$A$5,"")</f>
-        <v>&lt;string name="m000014"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$4&amp;i18n!B22&amp;$A$5,"")</f>
-        <v>&lt;string name="m000015"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C15" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$4&amp;i18n!C22&amp;$A$5,"")</f>
-        <v>&lt;string name="m000015"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$4&amp;i18n!D22&amp;$A$5,"")</f>
-        <v>&lt;string name="m000015"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$4&amp;i18n!B23&amp;$A$5,"")</f>
-        <v>&lt;string name="m000016"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C16" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$4&amp;i18n!C23&amp;$A$5,"")</f>
-        <v>&lt;string name="m000016"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D16" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$4&amp;i18n!D23&amp;$A$5,"")</f>
-        <v>&lt;string name="m000016"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$4&amp;i18n!B24&amp;$A$5,"")</f>
-        <v>&lt;string name="m000017"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="C17" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$4&amp;i18n!C24&amp;$A$5,"")</f>
-        <v>&lt;string name="m000017"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$4&amp;i18n!D24&amp;$A$5,"")</f>
-        <v>&lt;string name="m000017"&gt;&lt;/string&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -9106,155 +9019,155 @@
     <row r="4" spans="1:5">
       <c r="B4" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B14&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000007"="";</v>
+        <v/>
       </c>
       <c r="C4" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C14&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000007"="";</v>
+        <v/>
       </c>
       <c r="D4" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D14&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000007"="";</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B15&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000008"="";</v>
+        <v/>
       </c>
       <c r="C5" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C15&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000008"="";</v>
+        <v/>
       </c>
       <c r="D5" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D15&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000008"="";</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B16&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000009"="";</v>
+        <v/>
       </c>
       <c r="C6" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C16&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000009"="";</v>
+        <v/>
       </c>
       <c r="D6" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D16&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000009"="";</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B17&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000010"="";</v>
+        <v/>
       </c>
       <c r="C7" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C17&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000010"="";</v>
+        <v/>
       </c>
       <c r="D7" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D17&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000010"="";</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B18&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000011"="";</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C18&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000011"="";</v>
+        <v/>
       </c>
       <c r="D8" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D18&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000011"="";</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B19&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000012"="";</v>
+        <v/>
       </c>
       <c r="C9" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C19&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000012"="";</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D19&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000012"="";</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B20&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000013"="";</v>
+        <v/>
       </c>
       <c r="C10" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C20&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000013"="";</v>
+        <v/>
       </c>
       <c r="D10" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D20&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000013"="";</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B21&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000014"="";</v>
+        <v/>
       </c>
       <c r="C11" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C21&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000014"="";</v>
+        <v/>
       </c>
       <c r="D11" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D21&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000014"="";</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B22&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000015"="";</v>
+        <v/>
       </c>
       <c r="C12" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C22&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000015"="";</v>
+        <v/>
       </c>
       <c r="D12" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D22&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000015"="";</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B23&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000016"="";</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C23&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000016"="";</v>
+        <v/>
       </c>
       <c r="D13" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D23&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000016"="";</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B24&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000017"="";</v>
+        <v/>
       </c>
       <c r="C14" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C24&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000017"="";</v>
+        <v/>
       </c>
       <c r="D14" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D24&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000017"="";</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -15035,7 +14948,7 @@
   <dimension ref="A1:E400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -15146,281 +15059,281 @@
     <row r="7" spans="1:5">
       <c r="B7" t="str">
         <f>IF(i18n!$A8&lt;&gt;"",$A$1&amp;i18n!$A8&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B8&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000001":"",</v>
+        <v>"m000001":"Mobile login",</v>
       </c>
       <c r="C7" t="str">
         <f>IF(i18n!$A8&lt;&gt;"",$A$1&amp;i18n!$A8&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C8&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000001":"",</v>
+        <v>"m000001":"手機登入",</v>
       </c>
       <c r="D7" t="str">
         <f>IF(i18n!$A8&lt;&gt;"",$A$1&amp;i18n!$A8&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D8&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000001":"",</v>
+        <v>"m000001":"手机登入",</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="str">
         <f>IF(i18n!$A9&lt;&gt;"",$A$1&amp;i18n!$A9&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B9&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000002":"",</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <f>IF(i18n!$A9&lt;&gt;"",$A$1&amp;i18n!$A9&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C9&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000002":"",</v>
+        <v/>
       </c>
       <c r="D8" t="str">
         <f>IF(i18n!$A9&lt;&gt;"",$A$1&amp;i18n!$A9&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D9&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000002":"",</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="str">
         <f>IF(i18n!$A10&lt;&gt;"",$A$1&amp;i18n!$A10&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B10&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000003":"",</v>
+        <v/>
       </c>
       <c r="C9" t="str">
         <f>IF(i18n!$A10&lt;&gt;"",$A$1&amp;i18n!$A10&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C10&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000003":"",</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <f>IF(i18n!$A10&lt;&gt;"",$A$1&amp;i18n!$A10&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D10&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000003":"",</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="str">
         <f>IF(i18n!$A11&lt;&gt;"",$A$1&amp;i18n!$A11&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B11&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000004":"",</v>
+        <v/>
       </c>
       <c r="C10" t="str">
         <f>IF(i18n!$A11&lt;&gt;"",$A$1&amp;i18n!$A11&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C11&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000004":"",</v>
+        <v/>
       </c>
       <c r="D10" t="str">
         <f>IF(i18n!$A11&lt;&gt;"",$A$1&amp;i18n!$A11&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D11&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000004":"",</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="str">
         <f>IF(i18n!$A12&lt;&gt;"",$A$1&amp;i18n!$A12&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B12&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000005":"",</v>
+        <v/>
       </c>
       <c r="C11" t="str">
         <f>IF(i18n!$A12&lt;&gt;"",$A$1&amp;i18n!$A12&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C12&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000005":"",</v>
+        <v/>
       </c>
       <c r="D11" t="str">
         <f>IF(i18n!$A12&lt;&gt;"",$A$1&amp;i18n!$A12&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D12&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000005":"",</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="str">
         <f>IF(i18n!$A13&lt;&gt;"",$A$1&amp;i18n!$A13&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B13&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000006":"",</v>
+        <v/>
       </c>
       <c r="C12" t="str">
         <f>IF(i18n!$A13&lt;&gt;"",$A$1&amp;i18n!$A13&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C13&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000006":"",</v>
+        <v/>
       </c>
       <c r="D12" t="str">
         <f>IF(i18n!$A13&lt;&gt;"",$A$1&amp;i18n!$A13&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D13&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000006":"",</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B14&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000007":"",</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C14&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000007":"",</v>
+        <v/>
       </c>
       <c r="D13" t="str">
         <f>IF(i18n!$A14&lt;&gt;"",$A$1&amp;i18n!$A14&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D14&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000007":"",</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B15&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000008":"",</v>
+        <v/>
       </c>
       <c r="C14" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C15&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000008":"",</v>
+        <v/>
       </c>
       <c r="D14" t="str">
         <f>IF(i18n!$A15&lt;&gt;"",$A$1&amp;i18n!$A15&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D15&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000008":"",</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B16&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000009":"",</v>
+        <v/>
       </c>
       <c r="C15" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C16&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000009":"",</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <f>IF(i18n!$A16&lt;&gt;"",$A$1&amp;i18n!$A16&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D16&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000009":"",</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B17&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000010":"",</v>
+        <v/>
       </c>
       <c r="C16" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C17&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000010":"",</v>
+        <v/>
       </c>
       <c r="D16" t="str">
         <f>IF(i18n!$A17&lt;&gt;"",$A$1&amp;i18n!$A17&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D17&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000010":"",</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B18&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000011":"",</v>
+        <v/>
       </c>
       <c r="C17" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C18&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000011":"",</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <f>IF(i18n!$A18&lt;&gt;"",$A$1&amp;i18n!$A18&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D18&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000011":"",</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B19&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000012":"",</v>
+        <v/>
       </c>
       <c r="C18" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C19&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000012":"",</v>
+        <v/>
       </c>
       <c r="D18" t="str">
         <f>IF(i18n!$A19&lt;&gt;"",$A$1&amp;i18n!$A19&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D19&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000012":"",</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B20&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000013":"",</v>
+        <v/>
       </c>
       <c r="C19" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C20&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000013":"",</v>
+        <v/>
       </c>
       <c r="D19" t="str">
         <f>IF(i18n!$A20&lt;&gt;"",$A$1&amp;i18n!$A20&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D20&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000013":"",</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B21&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000014":"",</v>
+        <v/>
       </c>
       <c r="C20" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C21&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000014":"",</v>
+        <v/>
       </c>
       <c r="D20" t="str">
         <f>IF(i18n!$A21&lt;&gt;"",$A$1&amp;i18n!$A21&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D21&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000014":"",</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B22&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000015":"",</v>
+        <v/>
       </c>
       <c r="C21" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C22&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000015":"",</v>
+        <v/>
       </c>
       <c r="D21" t="str">
         <f>IF(i18n!$A22&lt;&gt;"",$A$1&amp;i18n!$A22&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D22&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000015":"",</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B23&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000016":"",</v>
+        <v/>
       </c>
       <c r="C22" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C23&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000016":"",</v>
+        <v/>
       </c>
       <c r="D22" t="str">
         <f>IF(i18n!$A23&lt;&gt;"",$A$1&amp;i18n!$A23&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D23&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000016":"",</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B24&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000017":"",</v>
+        <v/>
       </c>
       <c r="C23" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C24&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000017":"",</v>
+        <v/>
       </c>
       <c r="D23" t="str">
         <f>IF(i18n!$A24&lt;&gt;"",$A$1&amp;i18n!$A24&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D24&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000017":"",</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="str">
         <f>IF(i18n!$A25&lt;&gt;"",$A$1&amp;i18n!$A25&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B25&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000018":"",</v>
+        <v/>
       </c>
       <c r="C24" t="str">
         <f>IF(i18n!$A25&lt;&gt;"",$A$1&amp;i18n!$A25&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C25&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000018":"",</v>
+        <v/>
       </c>
       <c r="D24" t="str">
         <f>IF(i18n!$A25&lt;&gt;"",$A$1&amp;i18n!$A25&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D25&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000018":"",</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="str">
         <f>IF(i18n!$A26&lt;&gt;"",$A$1&amp;i18n!$A26&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B26&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000019":"",</v>
+        <v/>
       </c>
       <c r="C25" t="str">
         <f>IF(i18n!$A26&lt;&gt;"",$A$1&amp;i18n!$A26&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C26&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000019":"",</v>
+        <v/>
       </c>
       <c r="D25" t="str">
         <f>IF(i18n!$A26&lt;&gt;"",$A$1&amp;i18n!$A26&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D26&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000019":"",</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="str">
         <f>IF(i18n!$A27&lt;&gt;"",$A$1&amp;i18n!$A27&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!B27&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000020":"",</v>
+        <v/>
       </c>
       <c r="C26" t="str">
         <f>IF(i18n!$A27&lt;&gt;"",$A$1&amp;i18n!$A27&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!C27&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000020":"",</v>
+        <v/>
       </c>
       <c r="D26" t="str">
         <f>IF(i18n!$A27&lt;&gt;"",$A$1&amp;i18n!$A27&amp;$A$1&amp;$A$2&amp;$A$1&amp;i18n!D27&amp;$A$1&amp;$A$3,"")</f>
-        <v>"m000020":"",</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:4">
